--- a/QAtask.xlsx
+++ b/QAtask.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joywire Foxes\OneDrive - Южный Федеральный Университет\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joywire Foxes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F904F-6A29-4CF7-B09E-E6F699FC42C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC561614-6E4B-4852-80E1-9AE0BBDF3C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1E00AC2E-2C37-49EC-A00A-A01BC5ECA950}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -263,9 +263,6 @@
     <t>абв</t>
   </si>
   <si>
-    <t>Строка в буфере обмена</t>
-  </si>
-  <si>
     <t>Строка в поле идентична строке в буфере обмена</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>TestВвода!123😊</t>
+  </si>
+  <si>
+    <t>Строка копируется в буфер обмена</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BC5429-2807-46EB-8B6E-7D1EB1A0F021}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -748,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -771,7 +774,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -794,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -802,10 +805,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -817,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -825,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -840,7 +843,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -848,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -863,7 +866,7 @@
         <v>1234567890</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -871,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -886,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -894,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -909,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -932,7 +935,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -940,22 +943,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -963,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -978,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -986,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1001,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1009,10 +1012,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1024,7 +1027,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1047,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1055,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1070,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1078,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1093,7 +1096,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1101,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1116,7 +1119,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1124,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1139,7 +1142,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1147,10 +1150,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1162,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1170,10 +1173,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1182,10 +1185,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1193,10 +1196,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1205,10 +1208,10 @@
         <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,10 +1219,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1228,10 +1231,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1239,10 +1242,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1251,10 +1254,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1262,10 +1265,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1274,10 +1277,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
